--- a/data/trans_bre/P2A_ner_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1186678472956392</v>
+        <v>0.0387025735039065</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.059839869868624</v>
+        <v>2.304447993522147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.994267387567243</v>
+        <v>7.488873643081612</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.633085307836463</v>
+        <v>-4.969572009622787</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.003041731694455089</v>
+        <v>-0.01371961502316661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4200927954902666</v>
+        <v>0.4806403437812123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9266741663123114</v>
+        <v>0.9704011111323345</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4084221595430574</v>
+        <v>-0.4258575274468046</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.959802623188886</v>
+        <v>5.086605923302727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.337301330718978</v>
+        <v>6.423190260033838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.25557461195461</v>
+        <v>12.72413350233786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.027694821820405</v>
+        <v>1.995493693608921</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.231965561465738</v>
+        <v>1.296785790047136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.238644999047483</v>
+        <v>2.23432830568334</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.313167987675044</v>
+        <v>2.365165126164651</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2941083694122094</v>
+        <v>0.2857467089632269</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6100945282231351</v>
+        <v>-0.727162148564487</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7870262425882792</v>
+        <v>-0.8414156933855407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.503966485261881</v>
+        <v>1.65604657678356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4375046624121304</v>
+        <v>0.6257332269157415</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1705021788450213</v>
+        <v>-0.1949473792619926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1869701907960736</v>
+        <v>-0.1826699682468707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2327632760418177</v>
+        <v>0.2852980576463336</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08628240213627297</v>
+        <v>0.1439849133998025</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.665514846789225</v>
+        <v>2.450433998388417</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.747339622491935</v>
+        <v>2.701824899208042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.929144859336931</v>
+        <v>5.901563644711826</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.537122611713323</v>
+        <v>3.558841495268034</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.057167498560773</v>
+        <v>1.043917559041087</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9915004809316486</v>
+        <v>1.044450196765335</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.657410366670167</v>
+        <v>1.649786056901868</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.833699933742095</v>
+        <v>1.767557202597989</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1903749221538734</v>
+        <v>-0.3364268534659307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.201457943171911</v>
+        <v>-1.114877215444673</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.787154740589465</v>
+        <v>2.723079018860704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2086265659612086</v>
+        <v>-0.3649278832516507</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1069666848223148</v>
+        <v>-0.1896405324025345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3905005506176356</v>
+        <v>-0.3617406223143524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6703039376901865</v>
+        <v>0.6524188794294546</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08201288066270292</v>
+        <v>-0.1298485163235369</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.422505374638831</v>
+        <v>2.291369524154083</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.990351954008734</v>
+        <v>2.041563664798946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.641876293771302</v>
+        <v>7.613366730916702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.476314974612454</v>
+        <v>2.516679469121829</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.029840195288657</v>
+        <v>1.679476276430047</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.073734010091921</v>
+        <v>1.289905943665358</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.433698480881238</v>
+        <v>3.28407933125481</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.399453420092957</v>
+        <v>1.423266188454359</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.715673215778754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.599560096294999</v>
+        <v>1.599560096294998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.782961486303405</v>
@@ -949,7 +949,7 @@
         <v>2.085093588959547</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6112620029525916</v>
+        <v>0.6112620029525914</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.001700191484996182</v>
+        <v>-0.06825730394059104</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.039319682263112</v>
+        <v>-0.9203190489987129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.10960434270913</v>
+        <v>2.129217689179868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02132236131561011</v>
+        <v>-0.1381575816591358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1817140212206538</v>
+        <v>-0.2985908997798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4926094784680637</v>
+        <v>-0.4319742786247159</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4914170426674631</v>
+        <v>0.5231707271152989</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.020477487013793</v>
+        <v>-0.06305359852060109</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.145719979886931</v>
+        <v>4.272570834475355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.835755370948637</v>
+        <v>2.821361547603165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.526742225435826</v>
+        <v>7.75918288521434</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.213919744967588</v>
+        <v>3.130675647126727</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9.07132587064798</v>
+        <v>8.288678022361488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.885651236063637</v>
+        <v>3.177053490820653</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.448239866402671</v>
+        <v>6.667786084654953</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.823237742581541</v>
+        <v>1.701642017509739</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9393041946553321</v>
+        <v>0.9540032891293584</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8646540110956336</v>
+        <v>0.7663518330668704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.231144370235215</v>
+        <v>5.220190127717587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3835454166805135</v>
+        <v>0.456899399500012</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2889358674501383</v>
+        <v>0.2863667030288261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2402709074846654</v>
+        <v>0.216242536896766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.064455379096039</v>
+        <v>1.040413777275182</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0944900348279842</v>
+        <v>0.1108128901027406</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.75281937652163</v>
+        <v>2.828253191783298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.808460021256225</v>
+        <v>2.784507562951145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.895412692964116</v>
+        <v>7.808145800459802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.265903297738635</v>
+        <v>2.238363239724634</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.141938927045045</v>
+        <v>1.185115274162092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.047503795674055</v>
+        <v>1.066563227041958</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.038665254746243</v>
+        <v>1.967903876110794</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7682262263016926</v>
+        <v>0.7655586483525112</v>
       </c>
     </row>
     <row r="19">
